--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -97,45 +97,45 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>gt</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -530,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +535,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +617,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,13 +717,13 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6756756756756757</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.559322033898305</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5348837209302325</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C9">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5291005291005291</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4496644295302014</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.79375</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.253968253968254</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1217,13 @@
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01160541586073501</v>
+        <v>0.009668063164679342</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0.12</v>
@@ -1267,19 +1261,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3066</v>
+        <v>3073</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1299,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1325,7 +1319,7 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
         <v>35</v>
@@ -1343,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1351,13 +1345,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1377,13 +1371,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1403,13 +1397,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L21">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1429,13 +1423,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1455,13 +1449,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1481,25 +1475,25 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5986394557823129</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L24">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1507,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1559,13 +1553,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1611,13 +1605,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1637,13 +1631,13 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5098039215686274</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,59 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L31">
-        <v>25</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
